--- a/cleaned/hdfc_mutual_fund_portfolio.xlsx
+++ b/cleaned/hdfc_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -493,15 +508,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INE002A01018 |</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+          <t>INE002A01018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>11175500</t>
@@ -517,17 +532,20 @@
           <t>8.01</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -541,15 +559,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INE238A01034 |</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+          <t>INE238A01034</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>7746875</t>
@@ -565,17 +583,20 @@
           <t>4.33</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -589,15 +610,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INE090A01021 |</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+          <t>INE090A01021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>5270300</t>
@@ -613,17 +634,20 @@
           <t>3.74</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -637,15 +661,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INE040A01034 |</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+          <t>INE040A01034</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>2418350</t>
@@ -661,17 +685,20 @@
           <t>2.33</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -685,15 +712,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INE018A01030 |</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+          <t>INE018A01030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>968400</t>
@@ -709,17 +736,20 @@
           <t>1.96</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -733,15 +763,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INE047A01021 |</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+          <t>INE047A01021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>1358000</t>
@@ -757,17 +787,20 @@
           <t>1.93</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -781,15 +814,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INE009A01021 |</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+          <t>INE009A01021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>1801600</t>
@@ -805,17 +838,20 @@
           <t>1.92</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -829,15 +865,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INE101A01026 |</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+          <t>INE101A01026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>1020075</t>
@@ -853,17 +889,20 @@
           <t>1.73</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -877,15 +916,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE028A01039 </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+          <t>INE028A01039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>14244750</t>
@@ -901,17 +940,20 @@
           <t>1.72</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -925,15 +967,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE245A01021 </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+          <t>INE245A01021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>7776000</t>
@@ -949,17 +991,20 @@
           <t>1.61</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -973,15 +1018,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE237A01028 </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>INE237A01028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>1380000</t>
@@ -997,17 +1042,20 @@
           <t>1.49</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1021,15 +1069,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE476A01022 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+          <t>INE476A01022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>27519750</t>
@@ -1045,17 +1093,20 @@
           <t>1.45</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1069,15 +1120,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE271C01023 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+          <t>INE271C01023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Realty</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>3287625</t>
@@ -1093,17 +1144,20 @@
           <t>1.39</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1117,15 +1171,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE160A01022 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+          <t>INE160A01022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>24184000</t>
@@ -1141,17 +1195,20 @@
           <t>1.39</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1165,15 +1222,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE095A01012 </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+          <t>INE095A01012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>2404500</t>
@@ -1189,17 +1246,20 @@
           <t>1.35</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1213,15 +1273,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE155A01022 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+          <t>INE155A01022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>3325300</t>
@@ -1237,17 +1297,20 @@
           <t>1.35</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1261,15 +1324,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE205A01025 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>INE205A01025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Diversified Metals</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>4851850</t>
@@ -1285,17 +1348,20 @@
           <t>1.21</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1309,15 +1375,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE481G01011 </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+          <t>INE481G01011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>184250</t>
@@ -1333,17 +1399,20 @@
           <t>1.2</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1357,15 +1426,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE038A01020 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+          <t>INE038A01020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Non - Ferrous Metals</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>3423000</t>
@@ -1381,17 +1450,20 @@
           <t>1.15</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1405,15 +1477,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE494B01023 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+          <t>INE494B01023</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>783300</t>
@@ -1429,17 +1501,20 @@
           <t>1.09</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1453,15 +1528,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE066F01020 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+          <t>INE066F01020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>473400</t>
@@ -1477,17 +1552,20 @@
           <t>1.06</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1501,15 +1579,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE296A01024 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+          <t>INE296A01024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>234000</t>
@@ -1525,17 +1603,20 @@
           <t>1.05</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1549,15 +1630,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE062A01020 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+          <t>INE062A01020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>2246250</t>
@@ -1573,17 +1654,20 @@
           <t>0.98</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1597,15 +1681,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE467B01029 </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+          <t>INE467B01029</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>411950</t>
@@ -1621,17 +1705,20 @@
           <t>0.96</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1645,15 +1732,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE484J01027 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+          <t>INE484J01027</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Realty</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>657225</t>
@@ -1669,17 +1756,20 @@
           <t>0.87</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1693,15 +1783,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE758E01017 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+          <t>INE758E01017</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>6020850</t>
@@ -1717,17 +1807,20 @@
           <t>0.82</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1741,15 +1834,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE196A01026 </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+          <t>INE196A01026</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Agricultural Food &amp; Other Products</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>2098800</t>
@@ -1765,17 +1858,20 @@
           <t>0.8</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1789,15 +1885,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE733E01010 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+          <t>INE733E01010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>4180500</t>
@@ -1813,17 +1909,20 @@
           <t>0.77</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1837,15 +1936,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE849A01020 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+          <t>INE849A01020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>232300</t>
@@ -1861,17 +1960,20 @@
           <t>0.76</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1885,15 +1987,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE121J01017 </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+          <t>INE121J01017</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>3481600</t>
@@ -1909,17 +2011,20 @@
           <t>0.68</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1933,15 +2038,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE917I01010 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+          <t>INE917I01010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>132750</t>
@@ -1957,17 +2062,20 @@
           <t>0.67</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -1981,15 +2089,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE280A01028 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>INE280A01028</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>337050</t>
@@ -2005,17 +2113,20 @@
           <t>0.67</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2029,15 +2140,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE397D01024 </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+          <t>INE397D01024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>710125</t>
@@ -2053,17 +2164,20 @@
           <t>0.65</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2077,15 +2191,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE059A01026 </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+          <t>INE059A01026</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>779350</t>
@@ -2101,17 +2215,20 @@
           <t>0.65</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2125,15 +2242,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE721A01047 </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
+          <t>INE721A01047</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>2049750</t>
@@ -2149,17 +2266,20 @@
           <t>0.63</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2173,15 +2293,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE742F01042 </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
+          <t>INE742F01042</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Transport Infrastructure</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>986400</t>
@@ -2197,17 +2317,20 @@
           <t>0.61</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2221,15 +2344,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE423A01024 </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+          <t>INE423A01024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>462000</t>
@@ -2245,17 +2368,20 @@
           <t>0.6</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2269,15 +2395,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE674K01013 </t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+          <t>INE674K01013</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>5632200</t>
@@ -2293,17 +2419,20 @@
           <t>0.57</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2317,15 +2446,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE918I01026 </t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
+          <t>INE918I01026</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>579000</t>
@@ -2341,17 +2470,20 @@
           <t>0.57</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2365,15 +2497,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE860A01027 </t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
+          <t>INE860A01027</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>568750</t>
@@ -2389,17 +2521,20 @@
           <t>0.56</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2413,15 +2548,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE115A01026 </t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>INE115A01026</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>1541000</t>
@@ -2437,17 +2572,20 @@
           <t>0.52</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2461,15 +2599,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE647O01011 </t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>INE647O01011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>3140800</t>
@@ -2485,17 +2623,20 @@
           <t>0.49</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2509,15 +2650,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE302A01020 </t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+          <t>INE302A01020</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>2266200</t>
@@ -2533,17 +2674,20 @@
           <t>0.48</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2557,15 +2701,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE121A01024 </t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>INE121A01024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>625000</t>
@@ -2581,17 +2725,20 @@
           <t>0.46</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2605,15 +2752,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE752E01010 </t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+          <t>INE752E01010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>2671200</t>
@@ -2629,17 +2776,20 @@
           <t>0.46</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2653,15 +2803,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE318A01026 </t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
+          <t>INE318A01026</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>253000</t>
@@ -2677,17 +2827,20 @@
           <t>0.41</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2701,15 +2854,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE663F01024 </t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+          <t>INE663F01024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>81225</t>
@@ -2725,17 +2878,20 @@
           <t>0.36</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2749,15 +2905,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE749A01030 </t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
+          <t>INE749A01030</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Ferrous Metals</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>800625</t>
@@ -2773,17 +2929,20 @@
           <t>0.36</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2797,15 +2956,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE628A01036 </t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
+          <t>INE628A01036</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>1047415</t>
@@ -2821,17 +2980,20 @@
           <t>0.36</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2845,15 +3007,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE117A01022 </t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
+          <t>INE117A01022</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>103750</t>
@@ -2869,17 +3031,20 @@
           <t>0.35</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2893,15 +3058,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE854D01024 </t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+          <t>INE854D01024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>428750</t>
@@ -2917,17 +3082,20 @@
           <t>0.35</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2941,15 +3109,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE437A01024 </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+          <t>INE437A01024</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>83000</t>
@@ -2965,17 +3133,20 @@
           <t>0.32</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -2989,15 +3160,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE030A01027 </t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+          <t>INE030A01027</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>225900</t>
@@ -3013,17 +3184,20 @@
           <t>0.32</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3037,15 +3211,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE079A01024 </t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+          <t>INE079A01024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>1080000</t>
@@ -3061,17 +3235,20 @@
           <t>0.31</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3085,15 +3262,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE947Q01028 </t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+          <t>INE947Q01028</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>890800</t>
@@ -3109,17 +3286,20 @@
           <t>0.29</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3133,15 +3313,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE081A01020 </t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+          <t>INE081A01020</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>Ferrous Metals</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>3597000</t>
@@ -3157,17 +3337,20 @@
           <t>0.27</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3181,15 +3364,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE019A01038 </t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
+          <t>INE019A01038</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>Ferrous Metals</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>489375</t>
@@ -3205,17 +3388,20 @@
           <t>0.26</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3229,15 +3415,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE151A01013 </t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
+          <t>INE151A01013</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>283500</t>
@@ -3253,17 +3439,20 @@
           <t>0.26</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3277,15 +3466,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE263A01024 </t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
+          <t>INE263A01024</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>1479150</t>
@@ -3301,17 +3490,20 @@
           <t>0.25</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3325,15 +3517,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE158A01026 </t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
+          <t>INE158A01026</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>102000</t>
@@ -3349,17 +3541,20 @@
           <t>0.25</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3373,15 +3568,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE002S01010 </t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
+          <t>INE002S01010</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>Gas</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>317200</t>
@@ -3397,17 +3592,20 @@
           <t>0.25</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3421,15 +3619,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE591G01017 </t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
+          <t>INE591G01017</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>50400</t>
@@ -3445,17 +3643,20 @@
           <t>0.24</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3469,15 +3670,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE048G01026 </t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+          <t>INE048G01026</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
         <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>101675</t>
@@ -3493,17 +3694,20 @@
           <t>0.24</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3517,15 +3721,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE982J01020 </t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
+          <t>INE982J01020</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
         <is>
           <t>Financial Technology (Fintech)</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>531050</t>
@@ -3541,17 +3745,20 @@
           <t>0.23</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3565,15 +3772,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE006I01046 </t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
+          <t>INE006I01046</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>259469</t>
@@ -3589,17 +3796,20 @@
           <t>0.22</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3613,15 +3823,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE376G01013 </t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
+          <t>INE376G01013</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>1095000</t>
@@ -3637,17 +3847,20 @@
           <t>0.22</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3661,15 +3874,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE102D01028 </t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
+          <t>INE102D01028</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
         <is>
           <t>Personal Products</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>346500</t>
@@ -3685,17 +3898,20 @@
           <t>0.22</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3709,15 +3925,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE669E01016 </t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
+          <t>INE669E01016</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>43560000</t>
@@ -3733,17 +3949,20 @@
           <t>0.22</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3757,15 +3976,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE129A01019 </t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
+          <t>INE129A01019</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
         <is>
           <t>Gas</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>2103250</t>
@@ -3781,17 +4000,20 @@
           <t>0.21</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3805,15 +4027,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE584A01023 </t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
+          <t>INE584A01023</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
         <is>
           <t>Minerals &amp; Mining</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>5562000</t>
@@ -3829,17 +4051,20 @@
           <t>0.21</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3853,15 +4078,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE134E01011 </t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
+          <t>INE134E01011</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>864500</t>
@@ -3877,17 +4102,20 @@
           <t>0.21</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3901,15 +4129,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE200M01039 </t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
+          <t>INE200M01039</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>693875</t>
@@ -3925,17 +4153,20 @@
           <t>0.21</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3949,15 +4180,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE795G01014 </t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
+          <t>INE795G01014</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>548900</t>
@@ -3973,17 +4204,20 @@
           <t>0.2</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -3997,15 +4231,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE003A01024 </t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
+          <t>INE003A01024</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
         <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>58275</t>
@@ -4021,17 +4255,20 @@
           <t>0.2</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4045,15 +4282,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE100A01010 </t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
+          <t>INE100A01010</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
         <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>52400</t>
@@ -4069,17 +4306,20 @@
           <t>0.19</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4093,15 +4333,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE101D01020 </t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
+          <t>INE101D01020</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>565000</t>
@@ -4117,17 +4357,20 @@
           <t>0.18</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4141,15 +4384,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE053A01029 </t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
+          <t>INE053A01029</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>406000</t>
@@ -4165,17 +4408,20 @@
           <t>0.18</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4189,15 +4435,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE154A01025 </t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
+          <t>INE154A01025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
         <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>708800</t>
@@ -4213,17 +4459,20 @@
           <t>0.18</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4237,15 +4486,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE021A01026 </t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
+          <t>INE021A01026</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>126000</t>
@@ -4261,17 +4510,20 @@
           <t>0.16</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4285,15 +4537,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE084A01016 </t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
+          <t>INE084A01016</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>2504175</t>
@@ -4309,17 +4561,20 @@
           <t>0.16</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4333,15 +4588,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE522D01027 </t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
+          <t>INE522D01027</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>1407000</t>
@@ -4357,17 +4612,20 @@
           <t>0.16</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4381,15 +4639,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE066A01021 </t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
+          <t>INE066A01021</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>51275</t>
@@ -4405,17 +4663,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4429,15 +4690,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE335Y01020 </t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
+          <t>INE335Y01020</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>315875</t>
@@ -4453,17 +4714,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4477,15 +4741,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE121E01018 </t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
+          <t>INE121E01018</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
           <t>517500</t>
@@ -4501,17 +4765,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4525,15 +4792,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE585B01010 </t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
+          <t>INE585B01010</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
           <t>20850</t>
@@ -4549,17 +4816,20 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4573,15 +4843,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE406A01037 </t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
+          <t>INE406A01037</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>216700</t>
@@ -4597,17 +4867,20 @@
           <t>0.14</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4621,15 +4894,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE531E01026 </t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
+          <t>INE531E01026</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
         <is>
           <t>Non - Ferrous Metals</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
           <t>1017600</t>
@@ -4645,17 +4918,20 @@
           <t>0.14</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4669,15 +4945,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE528G01035 </t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
+          <t>INE528G01035</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
           <t>13208000</t>
@@ -4693,17 +4969,20 @@
           <t>0.14</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4717,15 +4996,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE361B01024 </t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
+          <t>INE361B01024</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>40900</t>
@@ -4741,17 +5020,20 @@
           <t>0.13</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4765,15 +5047,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE213A01029 </t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
+          <t>INE213A01029</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
         <is>
           <t>Oil</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>868175</t>
@@ -4789,17 +5071,20 @@
           <t>0.13</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4813,15 +5098,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE769A01020 </t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
+          <t>INE769A01020</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
         <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>491000</t>
@@ -4837,17 +5122,20 @@
           <t>0.12</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4861,15 +5149,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE545U01014 </t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
+          <t>INE545U01014</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>1444800</t>
@@ -4885,17 +5173,20 @@
           <t>0.12</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4909,15 +5200,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE883A01011 </t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
+          <t>INE883A01011</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>1800</t>
@@ -4933,17 +5224,20 @@
           <t>0.12</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -4957,15 +5251,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE596I01012 </t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
+          <t>INE596I01012</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>56250</t>
@@ -4981,17 +5275,20 @@
           <t>0.11</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5005,15 +5302,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE140A01024 </t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
+          <t>INE140A01024</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
           <t>197250</t>
@@ -5029,17 +5326,20 @@
           <t>0.11</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5053,15 +5353,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE092A01019 </t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
+          <t>INE092A01019</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
         <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>195250</t>
@@ -5077,17 +5377,20 @@
           <t>0.11</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5101,15 +5404,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE331A01037 </t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
+          <t>INE331A01037</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>221000</t>
@@ -5125,17 +5428,20 @@
           <t>0.11</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5149,15 +5455,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE010B01027 </t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
+          <t>INE010B01027</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>205200</t>
@@ -5173,17 +5479,20 @@
           <t>0.11</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5197,15 +5506,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE067A01029 </t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
+          <t>INE067A01029</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
         <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>286375</t>
@@ -5221,17 +5530,20 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5245,15 +5557,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE326A01037 </t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
+          <t>INE326A01037</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>85425</t>
@@ -5269,17 +5581,20 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5293,15 +5608,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE012A01025 </t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
+          <t>INE012A01025</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>77400</t>
@@ -5317,17 +5632,20 @@
           <t>0.09</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5341,15 +5659,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE702C01027 </t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
+          <t>INE702C01027</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>109550</t>
@@ -5365,17 +5683,20 @@
           <t>0.09</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5389,15 +5710,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE027H01010 </t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
+          <t>INE027H01010</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>152775</t>
@@ -5413,17 +5734,20 @@
           <t>0.09</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5437,15 +5761,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE323A01026 </t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
+          <t>INE323A01026</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>5100</t>
@@ -5461,17 +5785,20 @@
           <t>0.08</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5485,15 +5812,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE020B01018 </t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
+          <t>INE020B01018</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>316000</t>
@@ -5509,17 +5836,20 @@
           <t>0.08</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5533,15 +5863,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE114A01011 </t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
+          <t>INE114A01011</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
         <is>
           <t>Ferrous Metals</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>1388000</t>
@@ -5557,17 +5887,20 @@
           <t>0.08</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5581,15 +5914,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE685A01028 </t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
+          <t>INE685A01028</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>45250</t>
@@ -5605,17 +5938,20 @@
           <t>0.08</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5629,15 +5965,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE016A01026 </t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
+          <t>INE016A01026</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
         <is>
           <t>Personal Products</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>223750</t>
@@ -5653,17 +5989,20 @@
           <t>0.07</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5677,15 +6016,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE022Q01020 </t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
+          <t>INE022Q01020</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
           <t>708750</t>
@@ -5701,17 +6040,20 @@
           <t>0.07</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5725,15 +6067,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE414G01012 </t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
+          <t>INE414G01012</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>56375</t>
@@ -5749,17 +6091,20 @@
           <t>0.07</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5773,15 +6118,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE111A01025 </t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
+          <t>INE111A01025</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>145000</t>
@@ -5797,17 +6142,20 @@
           <t>0.06</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5821,15 +6169,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE811K01011 </t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
+          <t>INE811K01011</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
         <is>
           <t>Realty</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>83525</t>
@@ -5845,17 +6193,20 @@
           <t>0.06</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5869,15 +6220,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE191H01014 </t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
+          <t>INE191H01014</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>103785</t>
@@ -5893,17 +6244,20 @@
           <t>0.06</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5917,15 +6271,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE486A01021 </t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
+          <t>INE486A01021</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
           <t>663975</t>
@@ -5941,17 +6295,20 @@
           <t>0.05</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -5965,15 +6322,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE776C01039 </t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
+          <t>INE776C01039</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
         <is>
           <t>Transport Infrastructure</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>1260000</t>
@@ -5989,17 +6346,20 @@
           <t>0.05</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6013,15 +6373,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE775A01035 </t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
+          <t>INE775A01035</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
           <t>674500</t>
@@ -6037,17 +6397,20 @@
           <t>0.05</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6061,15 +6424,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE195A01028 </t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
+          <t>INE195A01028</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>24000</t>
@@ -6085,17 +6448,20 @@
           <t>0.05</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6109,15 +6475,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE726G01019 </t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
+          <t>INE726G01019</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>113250</t>
@@ -6133,17 +6499,20 @@
           <t>0.04</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6157,15 +6526,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE455K01017 </t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
+          <t>INE455K01017</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>12875</t>
@@ -6181,17 +6550,20 @@
           <t>0.04</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6205,15 +6577,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE398R01022 </t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
+          <t>INE398R01022</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
           <t>106000</t>
@@ -6229,17 +6601,20 @@
           <t>0.04</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6253,15 +6628,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE029A01011 </t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
+          <t>INE029A01011</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>232200</t>
@@ -6277,17 +6652,20 @@
           <t>0.03</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6301,15 +6679,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE073K01018 </t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
+          <t>INE073K01018</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>96875</t>
@@ -6325,17 +6703,20 @@
           <t>0.03</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6349,15 +6730,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE226A01021 </t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
+          <t>INE226A01021</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>35400</t>
@@ -6373,17 +6754,20 @@
           <t>0.03</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6397,15 +6781,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE075A01022 </t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
+          <t>INE075A01022</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
           <t>198000</t>
@@ -6421,17 +6805,20 @@
           <t>0.03</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6445,15 +6832,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE477A01020 </t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
+          <t>INE477A01020</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
           <t>52650</t>
@@ -6469,17 +6856,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6493,15 +6883,15 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE522F01014 </t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
+          <t>INE522F01014</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
         <is>
           <t>Consumable Fuels</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>102900</t>
@@ -6517,17 +6907,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6541,15 +6934,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE298A01020 </t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
+          <t>INE298A01020</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
           <t>14700</t>
@@ -6565,17 +6958,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6589,15 +6985,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE935A01035 </t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
+          <t>INE935A01035</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
           <t>23400</t>
@@ -6613,17 +7009,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6637,15 +7036,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE765G01017 </t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
+          <t>INE765G01017</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
           <t>19250</t>
@@ -6661,17 +7060,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6685,15 +7087,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE092T01019 </t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
+          <t>INE092T01019</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
           <t>622500</t>
@@ -6709,17 +7111,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6733,15 +7138,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE356A01018 </t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
+          <t>INE356A01018</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
           <t>10175</t>
@@ -6757,17 +7162,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6781,15 +7189,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE347G01014 </t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
+          <t>INE347G01014</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
         <is>
           <t>Gas</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
           <t>84000</t>
@@ -6805,17 +7213,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6829,15 +7240,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE044A01036 </t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
+          <t>INE044A01036</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
           <t>21700</t>
@@ -6853,17 +7264,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6877,15 +7291,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE669C01036 </t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
+          <t>INE669C01036</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
           <t>16800</t>
@@ -6901,17 +7315,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6925,15 +7342,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE686F01025 </t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
+          <t>INE686F01025</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
           <t>17200</t>
@@ -6949,17 +7366,20 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -6973,15 +7393,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE257A01026 </t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
+          <t>INE257A01026</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
         <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>115500</t>
@@ -6997,17 +7417,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7021,15 +7444,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE836A01035 </t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
+          <t>INE836A01035</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
           <t>22000</t>
@@ -7045,17 +7468,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7069,15 +7495,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE169A01031 </t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
+          <t>INE169A01031</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
         <is>
           <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
           <t>8400</t>
@@ -7093,17 +7519,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7117,15 +7546,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE600L01024 </t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
+          <t>INE600L01024</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
           <t>9150</t>
@@ -7141,17 +7570,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7165,15 +7597,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE042A01014 </t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
+          <t>INE042A01014</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
         <is>
           <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
           <t>2700</t>
@@ -7189,17 +7621,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7213,15 +7648,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE113A01013 </t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
+          <t>INE113A01013</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
         <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
           <t>32500</t>
@@ -7237,17 +7672,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7261,15 +7699,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE176B01034 </t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
+          <t>INE176B01034</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
           <t>7000</t>
@@ -7285,17 +7723,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7309,15 +7750,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE548A01028 </t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
+          <t>INE548A01028</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
           <t>190900</t>
@@ -7333,17 +7774,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7357,15 +7801,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE242A01010 </t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
+          <t>INE242A01010</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
           <t>107250</t>
@@ -7381,17 +7825,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7405,15 +7852,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE010V01017 </t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
+          <t>INE010V01017</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
         <is>
           <t>IT - Services</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
           <t>2400</t>
@@ -7429,17 +7876,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7453,15 +7903,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE0J1Y01017 </t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
+          <t>INE0J1Y01017</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
           <t>12650</t>
@@ -7477,17 +7927,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7501,15 +7954,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE417T01026 </t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
+          <t>INE417T01026</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
         <is>
           <t>Financial Technology (Fintech)</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
           <t>12675</t>
@@ -7525,17 +7978,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7549,15 +8005,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE758T01015 </t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
+          <t>INE758T01015</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
           <t>62000</t>
@@ -7573,17 +8029,20 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7597,15 +8056,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE358A01014 </t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
+          <t>INE358A01014</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
           <t>100</t>
@@ -7621,17 +8080,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7645,15 +8107,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE736A01011 </t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
+          <t>INE736A01011</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
           <t>5250</t>
@@ -7669,17 +8131,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7693,15 +8158,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE646L01027 </t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
+          <t>INE646L01027</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
           <t>150</t>
@@ -7717,17 +8182,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7741,15 +8209,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE821I01022 </t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
+          <t>INE821I01022</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
           <t>143500</t>
@@ -7765,17 +8233,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7789,15 +8260,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE797F01020 </t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
+          <t>INE797F01020</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
           <t>6250</t>
@@ -7813,17 +8284,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7837,15 +8311,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE670K01029 </t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
+          <t>INE670K01029</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
         <is>
           <t>Realty</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
           <t>4950</t>
@@ -7861,17 +8335,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7885,15 +8362,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE239A01024 </t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
+          <t>INE239A01024</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
         <is>
           <t>Food Products</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
           <t>2200</t>
@@ -7909,17 +8386,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7933,15 +8413,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE262H01021 </t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
+          <t>INE262H01021</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
           <t>100</t>
@@ -7957,17 +8437,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -7981,15 +8464,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE123W01016 </t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
+          <t>INE123W01016</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
           <t>750</t>
@@ -8005,17 +8488,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -8029,15 +8515,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE192A01025 </t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
+          <t>INE192A01025</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
         <is>
           <t>Agricultural Food &amp; Other Products</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
           <t>2736</t>
@@ -8053,17 +8539,20 @@
           <t>@</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity           </t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>EQUITY nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -8077,45 +8566,52 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE040A08849 </t>
+          <t>INE040A08849</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>CRISIL - AAA</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>12371.56</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
         <is>
           <t>7.9</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>1250</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>12371.56</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds           </t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>NONCONVERTIBLEDEBENTURESBONDS nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -8129,45 +8625,52 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE261F08DT8 </t>
+          <t>INE261F08DT8</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>CRISIL - AAA</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>10970.2</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
         <is>
           <t>7.745</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>10970.2</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds           </t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>NONCONVERTIBLEDEBENTURESBONDS nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -8181,45 +8684,52 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE296A07SF4 </t>
+          <t>INE296A07SF4</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>CRISIL - AAA</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7492.17</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>7.91</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>750</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>7492.17</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds           </t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>NONCONVERTIBLEDEBENTURESBONDS nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -8233,45 +8743,52 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE134E08LU1 </t>
+          <t>INE134E08LU1</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>CRISIL - AAA</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4990.23</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
         <is>
           <t>7.72</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>4990.23</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds           </t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>NONCONVERTIBLEDEBENTURESBONDS nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -8285,45 +8802,52 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">INE020B08DH2 </t>
+          <t>INE020B08DH2</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>CRISIL - AAA</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2458.45</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
         <is>
           <t>7.72</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>2458.45</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NonConvertible debentures  Bonds           </t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>NONCONVERTIBLEDEBENTURESBONDS nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -8337,7 +8861,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INF179KB1HU9 |</t>
+          <t>INF179KB1HU9</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -8357,17 +8881,20 @@
           <t>12.87</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mutual Fund Units           </t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>MUTUALFUNDUNITS nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
@@ -8381,7 +8908,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>INF179KB1HP9 |</t>
+          <t>INF179KB1HP9</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -8401,17 +8928,20 @@
           <t>5.11</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mutual Fund Units           </t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>HDFCAR</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>MUTUALFUNDUNITS nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>HDFCAR</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>HDFC Mutual Fund</t>
         </is>
